--- a/PlatformDriver/Drive/Control/OCR_Algorithm/Result/Testing.xlsx
+++ b/PlatformDriver/Drive/Control/OCR_Algorithm/Result/Testing.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,49 +459,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72.4</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0.16</v>
       </c>
       <c r="F2" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>79.6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>72.2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F3" t="n">
         <v>110</v>
       </c>
     </row>

--- a/PlatformDriver/Drive/Control/OCR_Algorithm/Result/Testing.xlsx
+++ b/PlatformDriver/Drive/Control/OCR_Algorithm/Result/Testing.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,23 +459,309 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>88.8</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>81.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>73.4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>80.9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>72.9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.2</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>80.8</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>71.7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>87.2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>81.9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>71.8</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87.7</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>81.1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>88.4</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>81.1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>71.9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>72.4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>87.2</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>81.3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>73.1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>88.2</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>79.3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>88.3</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>80.6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>72.1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F13" t="n">
         <v>110</v>
       </c>
     </row>
